--- a/result/NCDC_weather_data/stations_imputed/58239099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/58239099999.xlsx
@@ -565,7 +565,9 @@
       <c r="M2" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>11.4614520665742</v>
+      </c>
       <c r="O2" t="n">
         <v>118.76</v>
       </c>
@@ -617,7 +619,9 @@
       <c r="M3" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>11.4614520665742</v>
+      </c>
       <c r="O3" t="n">
         <v>128.48</v>
       </c>
@@ -669,7 +673,9 @@
       <c r="M4" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>11.4614520665742</v>
+      </c>
       <c r="O4" t="n">
         <v>138.2</v>
       </c>
@@ -721,7 +727,9 @@
       <c r="M5" t="n">
         <v>4.990068</v>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>11.4614520665742</v>
+      </c>
       <c r="O5" t="n">
         <v>144.68</v>
       </c>
@@ -773,7 +781,9 @@
       <c r="M6" t="n">
         <v>6.018948</v>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>11.4614520665742</v>
+      </c>
       <c r="O6" t="n">
         <v>144.68</v>
       </c>
@@ -825,7 +835,9 @@
       <c r="M7" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>11.4614520665742</v>
+      </c>
       <c r="O7" t="n">
         <v>122</v>
       </c>
@@ -877,7 +889,9 @@
       <c r="M8" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>11.4614520665742</v>
+      </c>
       <c r="O8" t="n">
         <v>125.24</v>
       </c>
@@ -929,7 +943,9 @@
       <c r="M9" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>11.4614520665742</v>
+      </c>
       <c r="O9" t="n">
         <v>122</v>
       </c>
@@ -981,7 +997,9 @@
       <c r="M10" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>11.4614520665742</v>
+      </c>
       <c r="O10" t="n">
         <v>112.28</v>
       </c>
